--- a/tabular/Asian_SEA2b_miss.xlsx
+++ b/tabular/Asian_SEA2b_miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathr\Dropbox\GLUE\Whole clades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520B263A-3BE3-48B7-BAA9-EAA0D69F75EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E603C-5CDA-6D48-AD95-B27DA22B22EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6600" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2980" windowWidth="31500" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>sequence.sequenceID</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>found by googling</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -340,11 +346,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -360,6 +377,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,34 +713,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:AH4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" customWidth="1"/>
-    <col min="25" max="25" width="26.42578125" customWidth="1"/>
-    <col min="26" max="26" width="22" customWidth="1"/>
-    <col min="27" max="27" width="24.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" customWidth="1"/>
-    <col min="30" max="30" width="19.85546875" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="17" customWidth="1"/>
-    <col min="34" max="34" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" customWidth="1"/>
+    <col min="22" max="22" width="23.83203125" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" customWidth="1"/>
+    <col min="29" max="29" width="19.83203125" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="32" max="32" width="17" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -768,59 +789,62 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AE1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="AH1" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -869,60 +893,60 @@
       <c r="P2" t="s">
         <v>37</v>
       </c>
+      <c r="Q2" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="R2" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="5"/>
+      <c r="AB2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AE2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AG2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -971,62 +995,62 @@
       <c r="P3" t="s">
         <v>38</v>
       </c>
+      <c r="Q3" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="R3" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="V3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="X3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="Z3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="AE3" s="8" t="s">
         <v>54</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AH3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AG3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1075,63 +1099,63 @@
       <c r="P4" t="s">
         <v>38</v>
       </c>
+      <c r="Q4" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="R4" s="12" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="V4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="X4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="Z4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>57</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="AE4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AH4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AG4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1 W1 AH1 U1 Y1 AA1 AC1:AF1">
+  <conditionalFormatting sqref="R1 V1 T1 X1 Z1 AB1:AE1 AG1:AH1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
     </cfRule>

--- a/tabular/Asian_SEA2b_miss.xlsx
+++ b/tabular/Asian_SEA2b_miss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E603C-5CDA-6D48-AD95-B27DA22B22EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760ADF84-3272-0940-B950-4F537DFF5E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2980" windowWidth="31500" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="6660" windowWidth="31500" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
-  <si>
-    <t>sequence.sequenceID</t>
-  </si>
-  <si>
-    <t>alignment.name</t>
-  </si>
-  <si>
-    <t>alignment.displayName</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.id</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.display_name</t>
-  </si>
-  <si>
-    <t>sequence.gb_place_sampled</t>
-  </si>
-  <si>
-    <t>sequence.collection_year</t>
-  </si>
-  <si>
-    <t>sequence.earliest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.latest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.gb_length</t>
-  </si>
-  <si>
-    <t>sequence.gb_create_date</t>
-  </si>
-  <si>
-    <t>sequence.gb_update_date</t>
-  </si>
-  <si>
-    <t>sequence.host</t>
-  </si>
-  <si>
-    <t>sequence.gb_pubmed_id</t>
-  </si>
-  <si>
-    <t>sequence.isolate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>country_edit</t>
   </si>
@@ -139,36 +94,12 @@
     <t>JX12-64</t>
   </si>
   <si>
-    <t>Country_update</t>
-  </si>
-  <si>
     <t>place_update</t>
   </si>
   <si>
-    <t>Collection.year_edit</t>
-  </si>
-  <si>
-    <t>Collection.year_update</t>
-  </si>
-  <si>
-    <t>earliest.collection_edit</t>
-  </si>
-  <si>
-    <t>earliest.collection_update</t>
-  </si>
-  <si>
-    <t>latest.collection_edit</t>
-  </si>
-  <si>
-    <t>latest.collection_update</t>
-  </si>
-  <si>
     <t>host_update</t>
   </si>
   <si>
-    <t>host.common_edit</t>
-  </si>
-  <si>
     <t>Lab_construct</t>
   </si>
   <si>
@@ -202,17 +133,83 @@
     <t>found by googling</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Number</t>
+    <t>recordID</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>alignment_name</t>
+  </si>
+  <si>
+    <t>alignment_displayName</t>
+  </si>
+  <si>
+    <t>m49_country.id</t>
+  </si>
+  <si>
+    <t>m49_country.display_name</t>
+  </si>
+  <si>
+    <t>gb_place_sampled</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>earliest_collection_year</t>
+  </si>
+  <si>
+    <t>latest_collection_year</t>
+  </si>
+  <si>
+    <t>gb_length</t>
+  </si>
+  <si>
+    <t>gb_create_date</t>
+  </si>
+  <si>
+    <t>gb_update_date</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>gb_pubmed_id</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>country_update</t>
+  </si>
+  <si>
+    <t>collection_year_edit</t>
+  </si>
+  <si>
+    <t>collection_year_update</t>
+  </si>
+  <si>
+    <t>earliest_collection_edit</t>
+  </si>
+  <si>
+    <t>earliest_collection_update</t>
+  </si>
+  <si>
+    <t>latest_collection_edit</t>
+  </si>
+  <si>
+    <t>latest_collection_update</t>
+  </si>
+  <si>
+    <t>host_common_edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -235,8 +232,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -346,26 +357,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -377,7 +374,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,7 +715,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:AH4"/>
+      <selection activeCell="X1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,136 +740,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="T1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AB1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>60</v>
+      <c r="AG1" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>2011</v>
@@ -879,100 +875,100 @@
         <v>11922</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>2012</v>
@@ -981,102 +977,102 @@
         <v>1353</v>
       </c>
       <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>52</v>
+      <c r="AD3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AH3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>2012</v>
@@ -1085,77 +1081,77 @@
         <v>1575</v>
       </c>
       <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>52</v>
+      <c r="AD4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="AH4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R1 V1 T1 X1 Z1 AB1:AE1 AG1:AH1">
+  <conditionalFormatting sqref="R1 T1 V1 X1 Z1 AB1 AG1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
